--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
     <sheet name="L2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="L3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
   <si>
     <t>1. Ưu và nhược điểm của việc lưu trữ dữ liệu ở File</t>
   </si>
@@ -833,12 +833,748 @@
     FOREIGN KEY (giao_vien_id) REFERENCES GiaoVien(giao_vien_id)
 );</t>
   </si>
+  <si>
+    <t>1. Ý nghĩa của hàm gộp? Điều kiện sử dùng các hàm gộp?</t>
+  </si>
+  <si>
+    <t>2. Phân biệt UNION và UNION ALL?</t>
+  </si>
+  <si>
+    <t>3. Ý nghĩa của LIMIT</t>
+  </si>
+  <si>
+    <t>4. Làm sao để sử dụng truy vấn con?</t>
+  </si>
+  <si>
+    <r>
+      <t>Hàm gộp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (hay còn gọi là hàm tổng hợp) là loại hàm trong SQL dùng để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>thực hiện phép tính trên nhiều giá trị trong một hoặc nhiều cột</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>trả về một giá trị duy nhất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Hàm gộp thường được sử dụng để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tóm tắt dữ liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> theo các nhóm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Các hàm gộp thường gặp nhất là </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>AVG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>MAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Đếm số lượng hàng trong một nhóm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>SUM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tính tổng các giá trị trong một cột.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>AVG</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tính trung bình các giá trị trong một cột.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm giá trị nhỏ nhất trong một cột.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>MAX</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Tìm giá trị lớn nhất trong một cột.</t>
+    </r>
+  </si>
+  <si>
+    <t>Điều kiện sử dụng các hàm gộp:</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hàm gộp thường được sử dụng cùng với mệnh đề </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>GROUP BY</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nhóm dữ liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> theo các tiêu chí nhất định.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Các hàm gộp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>chỉ hoạt động trên các cột dữ liệu có cùng kiểu dữ liệu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Hàm gộp </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bỏ qua các giá trị NULL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> khi thực hiện phép tính, ngoại trừ hàm </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>COUNT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UNION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Kết hợp các kết quả từ các câu lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và loại bỏ các bản ghi trùng lặp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>UNION ALL</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">: Kết hợp các kết quả từ các câu lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mà không loại bỏ các bản ghi trùng lặp, nó bao gồm tất cả các bản ghi dù có trùng lặp hay không.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>LIMIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là mệnh đề trong SQL được sử dụng để giới hạn số lượng hàng được trả về từ câu lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Nó hữu ích khi bạn chỉ muốn lấy một số lượng nhất định các hàng từ kết quả của câu lệnh </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Truy vấn con</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> (hay còn gọi là truy vấn lồng) là một truy vấn SQL được sử dụng </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>bên trong một truy vấn SQL khác</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. Truy vấn con được sử dụng để </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>lấy dữ liệu từ một hoặc nhiều bảng</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> và </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sử dụng dữ liệu đó làm điều kiện lọc hoặc tham số cho truy vấn chính</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Truy vấn con có thể được sử dụng trong các mệnh đề </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>JOIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>INSERT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>UPDATE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, và </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>DELETE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> để thực hiện các phân tích phức tạp và truy xuất dữ liệu từ nhiều bảng hoặc điều kiện phức tạp hơn.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ví dụ </t>
+  </si>
+  <si>
+    <t>-- Lấy danh sách các sản phẩm có giá bán lớn hơn giá trung bình của các sản phẩm</t>
+  </si>
+  <si>
+    <t>SELECT ProductName, Price</t>
+  </si>
+  <si>
+    <t>FROM Products</t>
+  </si>
+  <si>
+    <t>WHERE Price &gt; (SELECT AVG(Price) FROM Products);</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -883,6 +1619,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -904,7 +1647,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -929,6 +1672,12 @@
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1441,7 +2190,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A23" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
@@ -1618,12 +2367,159 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="91.28515625" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11"/>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="46.5" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
     <sheet name="L2" sheetId="2" r:id="rId2"/>
     <sheet name="L3" sheetId="3" r:id="rId3"/>
+    <sheet name="L4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
   <si>
     <t>1. Ưu và nhược điểm của việc lưu trữ dữ liệu ở File</t>
   </si>
@@ -1568,6 +1569,324 @@
   </si>
   <si>
     <t>WHERE Price &gt; (SELECT AVG(Price) FROM Products);</t>
+  </si>
+  <si>
+    <t>1. Mục đích khi sử dụng INDEX?</t>
+  </si>
+  <si>
+    <r>
+      <t>Mục đích:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Index là một cấu trúc dữ liệu trong cơ sở dữ liệu giúp tăng tốc độ truy xuất dữ liệu từ bảng.</t>
+    </r>
+  </si>
+  <si>
+    <t>Chức năng:</t>
+  </si>
+  <si>
+    <r>
+      <t>Tìm kiếm nhanh:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Index giúp cơ sở dữ liệu dễ dàng và nhanh chóng tìm kiếm các bản ghi dựa trên các trường được index.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sắp xếp và nhóm dữ liệu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Index cũng hỗ trợ cơ sở dữ liệu trong việc sắp xếp và nhóm các bản ghi dựa trên các trường được index.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tối ưu hóa hiệu suất:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Nhờ index, cơ sở dữ liệu có thể tránh được việc quét toàn bộ bảng để tìm kiếm dữ liệu, từ đó cải thiện hiệu suất truy vấn.</t>
+    </r>
+  </si>
+  <si>
+    <t>2. Mục đích sử dụng VIEW?</t>
+  </si>
+  <si>
+    <r>
+      <t>Mục đích:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> View là một câu truy vấn SQL lưu trữ lại và có thể được sử dụng như một bảng ảo trong cơ sở dữ liệu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tính bảo mật:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giúp ẩn thông tin nhạy cảm, chỉ cho phép người dùng truy cập vào các cột cần thiết.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tính nhất quán dữ liệu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Đảm bảo rằng các truy vấn dựa trên view sẽ luôn trả về các dữ liệu đã được chọn trước đó.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Đơn giản hóa truy vấn:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Cho phép người dùng truy vấn và xử lý dữ liệu một cách thuận tiện hơn, bằng cách tổng hợp các truy vấn phức tạp thành view đơn giản.</t>
+    </r>
+  </si>
+  <si>
+    <t>3. Sử dụng Stored Procedure (SP) dùng để làm gì?</t>
+  </si>
+  <si>
+    <r>
+      <t>Mục đích:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Stored Procedure là một tập hợp các câu lệnh SQL được lưu trữ trong cơ sở dữ liệu và có thể được gọi bằng tên để thực thi.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tối ưu hóa và tái sử dụng mã lệnh:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giúp giảm thiểu lặp lại code SQL và tăng tính bảo mật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xử lý logic phức tạp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Thực hiện các phép tính phức tạp, điều khiển luồng dữ liệu và xử lý ngoại lệ.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tăng tốc độ xử lý:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Stored Procedure thường được biên dịch và lưu trữ trước, giúp giảm thiểu thời gian parsing và tối ưu hóa hiệu suất của hệ thống.</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Sử dụng Trigger dùng để làm gì?</t>
+  </si>
+  <si>
+    <r>
+      <t>Mục đích:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trigger là các đoạn mã được tự động kích hoạt khi có sự kiện xảy ra trên bảng hoặc view trong cơ sở dữ liệu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Giám sát và bảo mật dữ liệu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Trigger có thể kiểm tra và giám sát các thay đổi dữ liệu, đảm bảo tuân thủ các quy tắc và ràng buộc.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Sinh dữ liệu:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Tạo ra dữ liệu phụ thuộc và tự động từ các thay đổi dữ liệu khác.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Báo cáo và ghi nhật ký:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Sử dụng để ghi lại các hoạt động quan trọng như thêm, sửa, xóa dữ liệu cho mục đích theo dõi và phân tích.</t>
+    </r>
+  </si>
+  <si>
+    <t>5. Sử dụng Function dùng để làm gì?</t>
+  </si>
+  <si>
+    <r>
+      <t>Mục đích:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Function là một đoạn mã được định nghĩa để thực hiện một nhiệm vụ cụ thể và trả về một giá trị.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tái sử dụng mã lệnh:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Giúp giảm thiểu lặp lại code và cải thiện tính bảo mật.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Xử lý logic phức tạp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Hỗ trợ thực hiện các tính toán phức tạp, xử lý chuỗi, ngày tháng, biểu thức logic, vv.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tối ưu hóa hiệu suất:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Function có thể được sử dụng để thực hiện tính toán mà không cần truy cập trực tiếp vào dữ liệu bên trong các bảng.</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -2369,7 +2688,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -2423,7 +2742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>80</v>
       </c>
@@ -2488,7 +2807,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="31.5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
@@ -2522,4 +2841,178 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A32"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="96.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5"/>
+    </row>
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5"/>
+    </row>
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -1,23 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202B517-55F0-415B-9E59-C38950A2C3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="90" windowWidth="19155" windowHeight="8520" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
     <sheet name="L2" sheetId="2" r:id="rId2"/>
     <sheet name="L3" sheetId="3" r:id="rId3"/>
     <sheet name="L4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
   <si>
     <t>1. Ưu và nhược điểm của việc lưu trữ dữ liệu ở File</t>
   </si>
@@ -1888,12 +1895,341 @@
       <t xml:space="preserve"> Function có thể được sử dụng để thực hiện tính toán mà không cần truy cập trực tiếp vào dữ liệu bên trong các bảng.</t>
     </r>
   </si>
+  <si>
+    <t>1.Các cách nhúng CSS vào HTML.</t>
+  </si>
+  <si>
+    <r>
+      <t>1.1 Inline CSS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> CSS được viết trực tiếp vào thẻ HTML thông qua thuộc tính </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+      </rPr>
+      <t>style</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;p style="color: red;"&gt;This is a red paragraph.&lt;/p&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.2 Internal CSS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: CSS được viết trong thẻ &lt;style&gt; và đặt trong phần &lt;head&gt; của tài liệu HTML.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;head&gt;
+    &lt;style&gt;
+        p {
+            color: blue;
+        }
+    &lt;/style&gt;
+&lt;/head&gt;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1.3 External CSS:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+CSS được viết trong một tệp riêng biệt và liên kết với tài liệu HTML thông qua thẻ &lt;link&gt; trong phần &lt;head&gt;.</t>
+    </r>
+  </si>
+  <si>
+    <t>&lt;head&gt;
+    &lt;link rel="stylesheet" type="text/css" href="styles.css"&gt;
+&lt;/head&gt;</t>
+  </si>
+  <si>
+    <t>2. Selector là gì? Có bao nhiêu loại.</t>
+  </si>
+  <si>
+    <t>Selector trong CSS là một mẫu dùng để chọn các phần tử HTML mà bạn muốn định kiểu. Có nhiều loại selector trong CSS, bao gồm nhưng không giới hạn ở:</t>
+  </si>
+  <si>
+    <t>2.1 Element Selector: Chọn tất cả các phần tử của một loại nhất định.</t>
+  </si>
+  <si>
+    <t>p {
+    color: green;
+}</t>
+  </si>
+  <si>
+    <t>2.2 ID Selector: Chọn một phần tử duy nhất với một id cụ thể.</t>
+  </si>
+  <si>
+    <t>#header {
+    color: blue;
+}</t>
+  </si>
+  <si>
+    <t>2.3 Class Selector: Chọn tất cả các phần tử có một lớp (class) cụ thể.</t>
+  </si>
+  <si>
+    <t>.highlight {
+    background-color: yellow;
+}</t>
+  </si>
+  <si>
+    <t>2.4 Pseudo-class Selector: Chọn các trạng thái đặc biệt của các phần tử.</t>
+  </si>
+  <si>
+    <t>a:hover {
+    color: orange;
+}</t>
+  </si>
+  <si>
+    <t>3. Box model là gì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    -  Box model trong CSS là mô hình để hiểu cách các thành phần HTML được tạo kiểu và bố trí trên trang web. Mỗi phần tử được coi là một hộp với các thành phần sau:</t>
+  </si>
+  <si>
+    <t>1. Content: Nội dung của hộp, nơi văn bản và hình ảnh xuất hiện.</t>
+  </si>
+  <si>
+    <t>2. Padding: Khoảng cách giữa nội dung và border.</t>
+  </si>
+  <si>
+    <t>3. Border: Đường viền xung quanh padding (hoặc nội dung nếu không có padding).</t>
+  </si>
+  <si>
+    <t>4. Margin: Khoảng cách giữa border và các phần tử xung quanh.</t>
+  </si>
+  <si>
+    <t>4. Có bao nhiêu loại position?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">   - CSS cung cấp năm loại position chính để điều khiển cách phần tử được đặt trên trang web:</t>
+  </si>
+  <si>
+    <t>Static (mặc định):
+Phần tử được đặt theo dòng chảy bình thường của tài liệu.</t>
+  </si>
+  <si>
+    <t>Relative:
+Phần tử được đặt tương đối với vị trí ban đầu của nó.</t>
+  </si>
+  <si>
+    <t>Absolute:
+Phần tử được đặt tuyệt đối so với phần tử cha gần nhất có position khác static, hoặc so với viewport nếu không có phần tử cha nào như vậy.</t>
+  </si>
+  <si>
+    <t>Fixed:
+Phần tử được đặt cố định so với viewport, ngay cả khi cuộn trang.</t>
+  </si>
+  <si>
+    <t>Sticky:
+Phần tử hoạt động như relative cho đến khi nó đạt đến một điểm cuộn cụ thể, sau đó nó hoạt động như fixed.</t>
+  </si>
+  <si>
+    <t>5. Có bao nhiêu loại display?</t>
+  </si>
+  <si>
+    <t>Thuộc tính display trong CSS xác định cách các phần tử được hiển thị trên trang web. Các loại phổ biến bao gồm:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Block:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phần tử hiển thị như một khối, chiếm toàn bộ chiều ngang của phần tử cha.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inline:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phần tử hiển thị theo dòng, chỉ chiếm không gian cần thiết cho nội dung.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Inline-block:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Kết hợp giữa block và inline, phần tử hiển thị theo dòng nhưng có thể đặt kích thước chiều rộng và chiều cao.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>None</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Phần tử không được hiển thị và không chiếm không gian trong tài liệu.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Flex:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phần tử được định dạng theo mô hình flexbox, cho phép bố trí phần tử con theo một trục linh hoạt.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Grid:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Phần tử được định dạng theo mô hình grid, cho phép bố trí phần tử con theo một lưới hai chiều.</t>
+    </r>
+  </si>
+  <si>
+    <t>Có ba cách chính để nhúng CSS vào HTML:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1945,6 +2281,19 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1966,7 +2315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1997,6 +2346,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2007,14 +2359,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2052,7 +2407,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2124,7 +2479,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2297,204 +2652,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="115.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="18">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="90">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="30">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
@@ -2506,174 +2861,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="118.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="45">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="30">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="23.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="18">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="150">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="18">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="150">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="225">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="18">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="30">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -2685,154 +3040,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="91.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="45">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="30">
       <c r="A10" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="30">
       <c r="A16" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="45">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="45">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="45">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -2844,172 +3199,385 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="96.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="30">
       <c r="A4" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="30">
       <c r="A5" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="30">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="18">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="30">
       <c r="A12" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="30">
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="18">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="30">
       <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="30">
       <c r="A20" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="30">
       <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="30">
       <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="30">
       <c r="A26" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="30">
       <c r="A28" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="30">
       <c r="A32" s="5" t="s">
         <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A7037D-89A0-416B-A6A1-058299036267}">
+  <dimension ref="A1:A42"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="117" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75">
+      <c r="A1" s="12" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="105">
+      <c r="A6" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="30">
+      <c r="A7" s="3" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="45">
+      <c r="A8" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="15.75">
+      <c r="A9" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="45">
+      <c r="A12" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="45">
+      <c r="A14" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="45">
+      <c r="A16" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="45">
+      <c r="A18" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="15.75">
+      <c r="A20" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="30">
+      <c r="A21" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="15.75">
+      <c r="A27" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="30">
+      <c r="A29" s="3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="30">
+      <c r="A30" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="45">
+      <c r="A31" s="3" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" ht="30">
+      <c r="A32" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30">
+      <c r="A33" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="15.75">
+      <c r="A35" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" s="3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1">
+      <c r="A39" s="3" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1">
+      <c r="A40" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="3" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1202B517-55F0-415B-9E59-C38950A2C3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
@@ -18,13 +12,14 @@
     <sheet name="L3" sheetId="3" r:id="rId3"/>
     <sheet name="L4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="172">
   <si>
     <t>1. Ưu và nhược điểm của việc lưu trữ dữ liệu ở File</t>
   </si>
@@ -2224,12 +2219,54 @@
   <si>
     <t>Có ba cách chính để nhúng CSS vào HTML:</t>
   </si>
+  <si>
+    <t>2. Responsive web là gì?</t>
+  </si>
+  <si>
+    <t>3. Để thiết kế một trang web responsive thì làm như thế nào?</t>
+  </si>
+  <si>
+    <t>1. Khái niệm Grid view là gì?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Grid view là một khái niệm trong thiết kế web để sắp xếp các phần tử trong một trang web theo lưới (grid). </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Nó cho phép bạn chia một trang web thành các ô (cells) hình chữ nhật hoặc vuông, sắp xếp các phần tử như text, hình ảnh, hoặc các thành phần khác vào các ô này. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">  -  Grid view giúp tạo ra cấu trúc bố cục rõ ràng và dễ dàng điều chỉnh vị trí, kích thước của các phần tử trên trang web.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Responsive web (web đáp ứng) là một kỹ thuật thiết kế và phát triển web nhằm tối ưu hóa trải nghiệm người dùng trên nhiều thiết bị và kích thước màn hình khác nhau, từ desktop đến điện thoại di động.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - Mục đích chính của responsive web là đảm bảo rằng nội dung và cấu trúc của trang web sẽ tự động thích nghi và hiển thị đúng cách trên mọi thiết bị, mà không cần người dùng phải phóng to hoặc thu nhỏ để đọc nội dung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> - Để thiết kế một trang web responsive, bạn cần tuân theo các nguyên tắc và kỹ thuật sau:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Sử dụng Media Queries: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * Đây là kỹ thuật cho phép bạn áp dụng CSS dựa trên kích thước màn hình của thiết bị. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">     * Bạn có thể định nghĩa các điều kiện để thay đổi cách hiển thị của trang web tùy theo kích thước màn hình, ví dụ như điều chỉnh độ rộng, font-size, padding, margin, và display của các phần tử.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Grid và Flexbox: Sử dụng các hệ thống grid (lưới) và flexbox để xây dựng cấu trúc bố cục linh hoạt và dễ dàng điều chỉnh theo các kích thước màn hình khác nhau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  + Thử nghiệm và Kiểm tra: Kiểm tra trang web của bạn trên nhiều thiết bị và màn hình khác nhau để đảm bảo rằng nó hoạt động mượt mà và hiển thị đúng cách trên mọi loại thiết bị.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2294,6 +2331,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2315,7 +2358,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2349,6 +2392,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2367,9 +2413,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2407,7 +2453,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2479,7 +2525,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2652,204 +2698,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="115.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18">
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="90">
+    <row r="34" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30">
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
@@ -2861,174 +2907,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="118.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="23.25" customHeight="1">
+    <row r="8" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18">
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="150">
+    <row r="15" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18">
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="150">
+    <row r="22" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="225">
+    <row r="31" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18">
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -3040,154 +3086,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30">
+    <row r="10" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
+    <row r="16" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="45">
+    <row r="20" spans="1:1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="45">
+    <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="45">
+    <row r="25" spans="1:1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -3199,170 +3245,170 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="18">
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30">
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30">
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="18">
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30">
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30">
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30">
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30">
+    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30">
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30">
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -3373,209 +3419,209 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A7037D-89A0-416B-A6A1-058299036267}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A19" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="117" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="105">
+    <row r="6" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="45">
+    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75">
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30">
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="45">
+    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="45">
+    <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="45">
+    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="45">
+    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30">
+    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30">
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="45">
+    <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30">
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75">
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -3583,4 +3629,93 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="91.7109375" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A4" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="13" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647C974-865C-4A16-A31C-C1F4BF973D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="5"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
@@ -13,13 +19,14 @@
     <sheet name="L4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="207">
   <si>
     <t>1. Ưu và nhược điểm của việc lưu trữ dữ liệu ở File</t>
   </si>
@@ -2261,12 +2268,285 @@
   <si>
     <t xml:space="preserve">  + Thử nghiệm và Kiểm tra: Kiểm tra trang web của bạn trên nhiều thiết bị và màn hình khác nhau để đảm bảo rằng nó hoạt động mượt mà và hiển thị đúng cách trên mọi loại thiết bị.</t>
   </si>
+  <si>
+    <t>1. Cách sử dụng Bootstrap</t>
+  </si>
+  <si>
+    <t>Để sử dụng Bootstrap trong dự án web của bạn, bạn có thể thực hiện theo các bước sau:</t>
+  </si>
+  <si>
+    <t>Thêm liên kết CSS và JS của Bootstrap vào phần &lt;head&gt; và trước thẻ đóng &lt;/body&gt; của tài liệu HTML.</t>
+  </si>
+  <si>
+    <t>Sau đó, import CSS và JS vào tập tin JavaScript chính của bạn.</t>
+  </si>
+  <si>
+    <t>Sử dụng các class có sẵn của Bootstrap để tạo các phần tử giao diện người dùng như button, form, navbar, card, v.v.</t>
+  </si>
+  <si>
+    <t>2. Các loại thiết bị do Bootstrap hỗ trợ</t>
+  </si>
+  <si>
+    <t>Bootstrap sử dụng hệ thống lưới (grid system) để hỗ trợ thiết kế responsive, điều chỉnh giao diện theo kích thước màn hình của thiết bị. Các kích thước màn hình được Bootstrap hỗ trợ bao gồm:</t>
+  </si>
+  <si>
+    <r>
+      <t>Extra small (xs):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> &lt;576px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Small (sm):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≥576px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Medium (md):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≥768px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Large (lg):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≥992px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Extra large (xl):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≥1200px</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>XXL (xxl):</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ≥1400px (chỉ trong Bootstrap 5)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">1.1 Bao gồm Bootstrap trong dự án </t>
+  </si>
+  <si>
+    <t>1.1.1 Sử dụng CDN:</t>
+  </si>
+  <si>
+    <t>1.1.2 Cài đặt bằng npm: npm install bootstrap</t>
+  </si>
+  <si>
+    <t>1.2. Sử dụng các class của Bootstrap:</t>
+  </si>
+  <si>
+    <t>3. Các màu cơ bản do Bootstrap hỗ trợ</t>
+  </si>
+  <si>
+    <t>Bootstrap cung cấp một bảng màu cơ bản để sử dụng cho các phần tử giao diện người dùng. Các màu này bao gồm:</t>
+  </si>
+  <si>
+    <r>
+      <t>Primary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: #007bff</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Secondary</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: #6c757d</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Success</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: #28a745</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Danger</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: #dc3545</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Warning</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: #ffc107</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Info</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: #17a2b8</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Light</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: #f8f9fa</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Dark</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: #343a40</t>
+    </r>
+  </si>
+  <si>
+    <t>4. Các thành phần của Bootstrap</t>
+  </si>
+  <si>
+    <t>Bootstrap cung cấp nhiều thành phần giao diện để giúp bạn xây dựng trang web một cách dễ dàng và nhanh chóng. Dưới đây là một số thành phần phổ biến và công dụng của chúng:</t>
+  </si>
+  <si>
+    <t>Badge:Sử dụng để hiển thị các thông tin nhỏ, thường là số lượng hoặc trạng thái.</t>
+  </si>
+  <si>
+    <t>Card:Sử dụng để hiển thị thông tin dưới dạng thẻ, bao gồm hình ảnh, tiêu đề, văn bản, và các nút.</t>
+  </si>
+  <si>
+    <t>Carousel:Sử dụng để tạo các slideshow ảnh hoặc nội dung.</t>
+  </si>
+  <si>
+    <t>Modal:Sử dụng để hiển thị các hộp thoại trên nền trang web.</t>
+  </si>
+  <si>
+    <t>Navbar:Sử dụng để tạo thanh điều hướng ở đầu hoặc cuối trang web.</t>
+  </si>
+  <si>
+    <t>Spinner:Sử dụng để hiển thị biểu tượng tải.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2358,7 +2638,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2395,6 +2675,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2413,9 +2696,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2453,7 +2736,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2525,7 +2808,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2698,204 +2981,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="115.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="18">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1" ht="90">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1" ht="30">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
@@ -2907,174 +3190,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="118.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="45">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="30">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="23.25" customHeight="1">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="18">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="150">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="18">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="150" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="150">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="18">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="225" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="225">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="18">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="30">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -3086,154 +3369,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="91.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="45">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="30">
       <c r="A10" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1">
       <c r="A12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:1">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="30">
       <c r="A16" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="46.5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="45">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="45">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="46.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1" ht="45">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1">
       <c r="A27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -3245,170 +3528,170 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="96.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="18">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="30">
       <c r="A4" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1" ht="30">
       <c r="A5" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="30">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="18">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="30">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="30">
       <c r="A12" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="30">
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="18">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="30">
       <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1">
       <c r="A18" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:1">
       <c r="A19" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="30">
       <c r="A20" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="18">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1" ht="30">
       <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1" ht="30">
       <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:1" ht="30">
       <c r="A26" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="18">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1" ht="30">
       <c r="A28" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="30">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -3419,209 +3702,209 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="117" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1" ht="15.75">
       <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1">
       <c r="A2" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:1">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1">
       <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="105" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="105">
       <c r="A6" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="30">
       <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1" ht="45">
       <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1" ht="15.75">
       <c r="A9" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1" ht="30">
       <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="45">
       <c r="A12" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1">
       <c r="A13" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="45">
       <c r="A14" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1">
       <c r="A15" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:1" ht="45">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:1">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:1" ht="45">
       <c r="A18" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:1" ht="15.75">
       <c r="A20" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:1" ht="30">
       <c r="A21" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:1">
       <c r="A22" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:1">
       <c r="A23" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:1">
       <c r="A24" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:1">
       <c r="A25" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:1" ht="15.75">
       <c r="A27" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:1">
       <c r="A28" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:1" ht="30">
       <c r="A29" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:1" ht="30">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:1" ht="45">
       <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:1" ht="30">
       <c r="A32" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" ht="30">
       <c r="A33" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:1" ht="15.75">
       <c r="A35" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:1">
       <c r="A36" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:1">
       <c r="A37" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:1">
       <c r="A38" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:1">
       <c r="A39" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:1">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:1">
       <c r="A41" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:1">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -3632,84 +3915,84 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:A14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="91.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" ht="29.25">
       <c r="A2" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="29.25">
       <c r="A3" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:1" ht="29.25">
       <c r="A4" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:1">
       <c r="A5" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:1" ht="43.5">
       <c r="A6" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:1" ht="43.5">
       <c r="A7" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:1">
       <c r="A8" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:1">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:1">
       <c r="A10" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:1">
       <c r="A11" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:1" ht="30">
       <c r="A12" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:1" ht="30">
       <c r="A13" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:1" ht="30">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
@@ -3718,4 +4001,198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C146581A-8ED8-4618-963C-70BA9D561159}">
+  <dimension ref="A1:A35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="107.5703125" style="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="18">
+      <c r="A1" s="2" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="4" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="3" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="4" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="18">
+      <c r="A10" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="30">
+      <c r="A11" s="3" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1">
+      <c r="A12" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1">
+      <c r="A13" s="5" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1">
+      <c r="A14" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="5" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="5" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="18">
+      <c r="A18" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="14" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="14" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="14" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
+      <c r="A23" s="14" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="14" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="14" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="14" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="14" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="18">
+      <c r="A28" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="30">
+      <c r="A29" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="3" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="3" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="3" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Theanh36\Desktop\TheanhCode\Module3\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A647C974-865C-4A16-A31C-C1F4BF973D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
@@ -2545,8 +2539,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2696,9 +2690,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2736,7 +2730,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -2808,7 +2802,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2981,204 +2975,204 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="115.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="18">
+    <row r="13" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
+    <row r="16" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="90">
+    <row r="34" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="30">
+    <row r="37" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="4" t="s">
         <v>37</v>
       </c>
@@ -3190,174 +3184,174 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A33"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A23" workbookViewId="0">
       <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="118.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="23.25" customHeight="1">
+    <row r="8" spans="1:1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="18">
+    <row r="9" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="150">
+    <row r="15" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="18">
+    <row r="16" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="150">
+    <row r="22" spans="1:1" ht="150" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="18">
+    <row r="24" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="225">
+    <row r="31" spans="1:1" ht="225" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="18">
+    <row r="32" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="4" t="s">
         <v>66</v>
       </c>
@@ -3369,154 +3363,154 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A30"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A16" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.28515625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="45">
+    <row r="2" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30">
+    <row r="10" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A10" s="11" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="11" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="11" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="11"/>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
+    <row r="16" spans="1:1" ht="30.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="45">
+    <row r="20" spans="1:1" ht="46.5" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="45">
+    <row r="24" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="45">
+    <row r="25" spans="1:1" ht="46.5" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>92</v>
       </c>
@@ -3528,170 +3522,170 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A32"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A14" workbookViewId="0">
       <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="96.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="30">
+    <row r="4" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="30">
+    <row r="5" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="30">
+    <row r="6" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="5"/>
     </row>
-    <row r="8" spans="1:1" ht="18">
+    <row r="8" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="30">
+    <row r="9" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30">
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30">
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A14" s="5"/>
     </row>
-    <row r="15" spans="1:1" ht="18">
+    <row r="15" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="30">
+    <row r="16" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="30">
+    <row r="20" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="18">
+    <row r="21" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="30">
+    <row r="22" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="30">
+    <row r="24" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="30">
+    <row r="26" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="18">
+    <row r="27" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="30">
+    <row r="28" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30">
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>118</v>
       </c>
@@ -3702,209 +3696,209 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A42"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="117" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="15.75">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="105">
+    <row r="6" spans="1:1" ht="105" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="30">
+    <row r="7" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="45">
+    <row r="8" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="15.75">
+    <row r="9" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="30">
+    <row r="10" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="45">
+    <row r="12" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="45">
+    <row r="14" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="45">
+    <row r="16" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="45">
+    <row r="18" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75">
+    <row r="20" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="30">
+    <row r="21" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="15.75">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30">
+    <row r="29" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30">
+    <row r="30" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="45">
+    <row r="31" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="30">
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="30">
+    <row r="33" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="15.75">
+    <row r="35" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="12" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>156</v>
       </c>
@@ -3915,84 +3909,84 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="91.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="10" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="29.25">
+    <row r="2" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="29.25">
+    <row r="3" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="29.25">
+    <row r="4" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="43.5">
+    <row r="6" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A6" s="13" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="43.5">
+    <row r="7" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="10" spans="1:1">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="11" spans="1:1">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="30">
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="30">
+    <row r="13" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="30">
+    <row r="14" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>171</v>
       </c>
@@ -4004,190 +3998,196 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C146581A-8ED8-4618-963C-70BA9D561159}">
-  <dimension ref="A1:A35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="107.5703125" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="18">
+    <row r="1" spans="1:1" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="2" spans="1:1">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="6" spans="1:1">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:1">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="18">
-      <c r="A10" s="2" t="s">
+    <row r="11" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="30">
-      <c r="A11" s="3" t="s">
+    <row r="12" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="5" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="5" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="5" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="5" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="5" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="5" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="18">
-      <c r="A18" s="2" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5"/>
+    </row>
+    <row r="20" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A20" s="2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="14" t="s">
+    <row r="22" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="14" t="s">
+    <row r="23" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="14" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" s="14" t="s">
+    <row r="24" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" s="14" t="s">
+    <row r="25" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="14" t="s">
+    <row r="26" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="14" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="14" t="s">
+    <row r="27" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="14" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
-      <c r="A26" s="14" t="s">
+    <row r="28" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
-      <c r="A27" s="14" t="s">
+    <row r="29" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="14" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="18">
-      <c r="A28" s="2" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+    </row>
+    <row r="31" spans="1:1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="30">
-      <c r="A29" s="3" t="s">
+    <row r="32" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>200</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
-      <c r="A30" s="3" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>201</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="3" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
-      <c r="A32" s="3" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>203</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="3" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="3" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="3" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>206</v>
       </c>
     </row>

--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
@@ -14,13 +14,14 @@
     <sheet name="Sheet1" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="329">
   <si>
     <t>1. Ưu và nhược điểm của việc lưu trữ dữ liệu ở File</t>
   </si>
@@ -2535,12 +2536,397 @@
   <si>
     <t>Spinner:Sử dụng để hiển thị biểu tượng tải.</t>
   </si>
+  <si>
+    <t>1. Phân biệt HTTP/HTTPS</t>
+  </si>
+  <si>
+    <t>2. Phân biệt dynamic web/static web</t>
+  </si>
+  <si>
+    <t>3. Phân biệt phương thức get/post</t>
+  </si>
+  <si>
+    <t>5. Phân biệt request/response ở mô hình Client – Server?</t>
+  </si>
+  <si>
+    <t>6. Phân biệt forward/redirect?</t>
+  </si>
+  <si>
+    <t>Tính năng</t>
+  </si>
+  <si>
+    <t>HTTP</t>
+  </si>
+  <si>
+    <t>HTTPS</t>
+  </si>
+  <si>
+    <t>Bảo mật</t>
+  </si>
+  <si>
+    <t>Không mã hóa</t>
+  </si>
+  <si>
+    <t>Mã hóa SSL/TLS</t>
+  </si>
+  <si>
+    <t>Cổng kết nối</t>
+  </si>
+  <si>
+    <t>Mặc định 80</t>
+  </si>
+  <si>
+    <t>Mặc định 443</t>
+  </si>
+  <si>
+    <t>Hiệu suất</t>
+  </si>
+  <si>
+    <t>Chậm hơn một chút</t>
+  </si>
+  <si>
+    <t>Biểu tượng hiển thị</t>
+  </si>
+  <si>
+    <t>Ổ khóa màu xám, cảnh báo bảo mật</t>
+  </si>
+  <si>
+    <t>Ổ khóa màu xanh lá cây, "HTTPS"</t>
+  </si>
+  <si>
+    <t>Ứng dụng</t>
+  </si>
+  <si>
+    <t>Trang web không cần bảo mật cao</t>
+  </si>
+  <si>
+    <t>Trang web cần bảo mật cao</t>
+  </si>
+  <si>
+    <t>Khuyến nghị</t>
+  </si>
+  <si>
+    <t>Sử dụng khi không cần bảo mật cao</t>
+  </si>
+  <si>
+    <t>Sử dụng cho tất cả các trang web</t>
+  </si>
+  <si>
+    <t>Nội dung</t>
+  </si>
+  <si>
+    <t>Cố định</t>
+  </si>
+  <si>
+    <t>Cập nhật theo thời gian thực</t>
+  </si>
+  <si>
+    <t>Tương tác</t>
+  </si>
+  <si>
+    <t>Cao</t>
+  </si>
+  <si>
+    <t>Công nghệ</t>
+  </si>
+  <si>
+    <t>HTML, CSS, JavaScript</t>
+  </si>
+  <si>
+    <t>Ngôn ngữ lập trình phía máy chủ, cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <t>Bảo trì</t>
+  </si>
+  <si>
+    <t>Chi phí</t>
+  </si>
+  <si>
+    <t>Rẻ hơn</t>
+  </si>
+  <si>
+    <t>Tốn kém hơn</t>
+  </si>
+  <si>
+    <t>Khó khăn : vì nội dung thay đổi thường xuyên và cần cập nhật cơ sở dữ liệu.</t>
+  </si>
+  <si>
+    <t>Dễ dàng :nội dung không thay đổi thường xuyên.</t>
+  </si>
+  <si>
+    <t>Hạn chế : chỉ cho phép người dùng xem nội dung. Họ không thể tương tác với trang web bằng cách bình luận, đăng ký, thanh toán, v.v.</t>
+  </si>
+  <si>
+    <t>Cao :  cho phép người dùng tương tác với nội dung và với nhau. Họ có thể bình luận, đăng ký, thanh toán, tạo hồ sơ cá nhân, v.v.</t>
+  </si>
+  <si>
+    <t>Trang web tĩnh(Static web)</t>
+  </si>
+  <si>
+    <t>Trang web động (Dynamic web)</t>
+  </si>
+  <si>
+    <t>Nhanh hơn : vì nó không cần phải mã hóa và giải mã dữ liệu.</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>POST</t>
+  </si>
+  <si>
+    <t>Mục đích</t>
+  </si>
+  <si>
+    <t>Truy xuất dữ liệu từ máy chủ</t>
+  </si>
+  <si>
+    <t>Gửi dữ liệu lên máy chủ</t>
+  </si>
+  <si>
+    <t>Vị trí dữ liệu</t>
+  </si>
+  <si>
+    <t>Tham số URL</t>
+  </si>
+  <si>
+    <t>Phần thân HTTP</t>
+  </si>
+  <si>
+    <t>Kích thước dữ liệu</t>
+  </si>
+  <si>
+    <t>Có giới hạn (thường là 2KB)</t>
+  </si>
+  <si>
+    <t>Không giới hạn</t>
+  </si>
+  <si>
+    <t>Thao tác CRUD</t>
+  </si>
+  <si>
+    <t>READ</t>
+  </si>
+  <si>
+    <t>CREATE, READ, UPDATE, DELETE</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Có trạng thái</t>
+  </si>
+  <si>
+    <t>Không trạng thái</t>
+  </si>
+  <si>
+    <t>Bộ nhớ đệm</t>
+  </si>
+  <si>
+    <t>Ví dụ</t>
+  </si>
+  <si>
+    <t>Truy cập trang web, lấy thông tin sản phẩm</t>
+  </si>
+  <si>
+    <t>Đăng nhập, đăng ký tài khoản, thanh toán</t>
+  </si>
+  <si>
+    <t>Ít bảo mật hơn :  vì dữ liệu được gửi trong URL, có thể dễ dàng bị chặn và đọc bởi kẻ tấn công.</t>
+  </si>
+  <si>
+    <t>Bảo mật hơn : dữ liệu được gửi trong phần thân HTTP, không được hiển thị trong URL và được mã hóa trong một số trường hợp.</t>
+  </si>
+  <si>
+    <t>Không thể được bộ nhớ đệm : vì dữ liệu được gửi thường là duy nhất.</t>
+  </si>
+  <si>
+    <t>Có thể được bộ nhớ đệm : bởi trình duyệt và máy chủ, giúp tăng tốc độ truy cập trang web.</t>
+  </si>
+  <si>
+    <t>JSP</t>
+  </si>
+  <si>
+    <t>Servlet</t>
+  </si>
+  <si>
+    <t>Xử lý yêu cầu HTTP và tạo ra phản hồi HTTP</t>
+  </si>
+  <si>
+    <t>Mức độ trừu tượng</t>
+  </si>
+  <si>
+    <t>Cao hơn</t>
+  </si>
+  <si>
+    <t>Thấp hơn</t>
+  </si>
+  <si>
+    <t>Khả năng tái sử dụng</t>
+  </si>
+  <si>
+    <t>Độ phức tạp</t>
+  </si>
+  <si>
+    <t>Dễ dàng hơn</t>
+  </si>
+  <si>
+    <t>Khó khăn hơn</t>
+  </si>
+  <si>
+    <t>Trang web hiển thị danh sách sản phẩm, giỏ hàng mua sắm</t>
+  </si>
+  <si>
+    <t>Hệ thống đăng nhập, hệ thống quản lý nội dung (CMS)</t>
+  </si>
+  <si>
+    <t>Hiển thị nội dung động, Thu thập dữ liệu từ người dùng</t>
+  </si>
+  <si>
+    <t>Xử lý</t>
+  </si>
+  <si>
+    <t>Tạo nội dung động trên server-side</t>
+  </si>
+  <si>
+    <t>Xử lý yêu cầu HTTP và tạo phản hồi</t>
+  </si>
+  <si>
+    <t>Thành phần</t>
+  </si>
+  <si>
+    <t>Gồm mã Java và HTML</t>
+  </si>
+  <si>
+    <t>Chủ yếu mã Java</t>
+  </si>
+  <si>
+    <t>Request (Yêu cầu)</t>
+  </si>
+  <si>
+    <t>Response (Phản hồi)</t>
+  </si>
+  <si>
+    <t>Định nghĩa</t>
+  </si>
+  <si>
+    <t>Thông điệp được gửi từ máy khách đến máy chủ</t>
+  </si>
+  <si>
+    <t>Thông điệp được gửi từ máy chủ đến máy khách</t>
+  </si>
+  <si>
+    <t>Yêu cầu máy chủ thực hiện hành động</t>
+  </si>
+  <si>
+    <t>Trả lời yêu cầu của máy khách</t>
+  </si>
+  <si>
+    <t>Phương thức, URI, Header, Body</t>
+  </si>
+  <si>
+    <t>Trạng thái, Header, Body</t>
+  </si>
+  <si>
+    <t>Truy cập trang web, đăng nhập</t>
+  </si>
+  <si>
+    <t>Nội dung trang web, thông báo đăng nhập thành công</t>
+  </si>
+  <si>
+    <t>Khởi tạo</t>
+  </si>
+  <si>
+    <t>Máy khách</t>
+  </si>
+  <si>
+    <t>Máy chủ</t>
+  </si>
+  <si>
+    <t>Hướng đi</t>
+  </si>
+  <si>
+    <t>Máy khách -&gt; Máy chủ</t>
+  </si>
+  <si>
+    <t>Máy chủ -&gt; Máy khách</t>
+  </si>
+  <si>
+    <t>Vai trò chủ động</t>
+  </si>
+  <si>
+    <t>Forward</t>
+  </si>
+  <si>
+    <t>Redirect</t>
+  </si>
+  <si>
+    <t>Chuyển hướng bên ngoài</t>
+  </si>
+  <si>
+    <t>Cách thức hoạt động</t>
+  </si>
+  <si>
+    <t>Ưu điểm</t>
+  </si>
+  <si>
+    <t>Giữ nguyên ngữ cảnh, hiệu suất tốt hơn</t>
+  </si>
+  <si>
+    <t>Dễ theo dõi, an toàn hơn</t>
+  </si>
+  <si>
+    <t>Nhược điểm</t>
+  </si>
+  <si>
+    <t>Khó theo dõi, vấn đề bảo mật tiềm ẩn</t>
+  </si>
+  <si>
+    <t>Mất ngữ cảnh, hiệu suất chậm hơn</t>
+  </si>
+  <si>
+    <t>Chuyển sang trang tiếp theo trong quy trình thanh toán</t>
+  </si>
+  <si>
+    <t>Chuyển hướng đến trang đăng nhập với thông báo lỗi</t>
+  </si>
+  <si>
+    <t>Chuyển hướng nội bộ : Khi sử dụng forward, máy chủ sẽ tiếp tục xử lý yêu cầu hiện tại và gửi kết quả đến trình duyệt dưới dạng trang web mới.</t>
+  </si>
+  <si>
+    <t>Gửi request nội bộ : Không thay đổi URL trên trình duyệt</t>
+  </si>
+  <si>
+    <t>Gửi response mới : Thay đổi URL trên trình duyệt của client</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4. JSP, Servlet là gì? Phân biệt?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+JSP (JavaServer Pages) và Servlet là hai công nghệ cốt lõi được sử dụng để phát triển các ứng dụng web động Java. Mặc dù có một số điểm tương đồng, nhưng JSP và Servlet có những chức năng và mục đích sử dụng riêng biệt.</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2611,6 +2997,26 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2620,7 +3026,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2628,11 +3034,55 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2671,6 +3121,45 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4001,7 +4490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
@@ -4195,4 +4684,584 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="11" customWidth="1"/>
+    <col min="2" max="2" width="41.140625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="45.85546875" style="11" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="26" t="s">
+        <v>207</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>213</v>
+      </c>
+      <c r="C2" s="24" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="18" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19"/>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+    </row>
+    <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="27" t="s">
+        <v>208</v>
+      </c>
+      <c r="B10" s="27"/>
+      <c r="C10" s="27"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B11" s="24" t="s">
+        <v>248</v>
+      </c>
+      <c r="C11" s="24" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>246</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>242</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25"/>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B19" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="C19" s="24" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="18" t="s">
+        <v>253</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>254</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="18" t="s">
+        <v>256</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>257</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>272</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="18" t="s">
+        <v>265</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>266</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>268</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="18" t="s">
+        <v>269</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>270</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="19"/>
+      <c r="B28" s="19"/>
+      <c r="C28" s="19"/>
+    </row>
+    <row r="29" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="22" t="s">
+        <v>328</v>
+      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" s="24" t="s">
+        <v>276</v>
+      </c>
+      <c r="C30" s="24" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>288</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>289</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="C32" s="17" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17" t="s">
+        <v>292</v>
+      </c>
+      <c r="B33" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="C33" s="17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B35" s="15" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="15" t="s">
+        <v>283</v>
+      </c>
+      <c r="B36" s="15" t="s">
+        <v>284</v>
+      </c>
+      <c r="C36" s="15" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B37" s="15" t="s">
+        <v>286</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="21"/>
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+    </row>
+    <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="26"/>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B40" s="24" t="s">
+        <v>295</v>
+      </c>
+      <c r="C40" s="24" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B41" s="15" t="s">
+        <v>298</v>
+      </c>
+      <c r="C41" s="15" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B42" s="15" t="s">
+        <v>300</v>
+      </c>
+      <c r="C42" s="15" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="B43" s="15" t="s">
+        <v>302</v>
+      </c>
+      <c r="C43" s="15" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B44" s="15" t="s">
+        <v>304</v>
+      </c>
+      <c r="C44" s="15" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="15" t="s">
+        <v>306</v>
+      </c>
+      <c r="B45" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="B46" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="C46" s="15" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="B47" s="15" t="s">
+        <v>307</v>
+      </c>
+      <c r="C47" s="15" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="23"/>
+      <c r="B48" s="23"/>
+      <c r="C48" s="23"/>
+    </row>
+    <row r="49" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="24" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" s="24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="15" t="s">
+        <v>297</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>325</v>
+      </c>
+      <c r="C51" s="15" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="B52" s="15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C52" s="15" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="15" t="s">
+        <v>317</v>
+      </c>
+      <c r="B53" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="C53" s="15" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="15" t="s">
+        <v>320</v>
+      </c>
+      <c r="B54" s="15" t="s">
+        <v>321</v>
+      </c>
+      <c r="C54" s="15" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="15" t="s">
+        <v>269</v>
+      </c>
+      <c r="B55" s="15" t="s">
+        <v>323</v>
+      </c>
+      <c r="C55" s="15" t="s">
+        <v>324</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="A29:C29"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A49:C49"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="7"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="L1" sheetId="1" r:id="rId1"/>
@@ -15,13 +15,14 @@
     <sheet name="Sheet2" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet3" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet4" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet5" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="359">
   <si>
     <t>1. Ưu và nhược điểm của việc lưu trữ dữ liệu ở File</t>
   </si>
@@ -2921,12 +2922,244 @@
 JSP (JavaServer Pages) và Servlet là hai công nghệ cốt lõi được sử dụng để phát triển các ứng dụng web động Java. Mặc dù có một số điểm tương đồng, nhưng JSP và Servlet có những chức năng và mục đích sử dụng riêng biệt.</t>
     </r>
   </si>
+  <si>
+    <t>1. JSTL là gì?</t>
+  </si>
+  <si>
+    <t>2. Vì sao phải sử dụng JSTL mà không nhúng Java và JSP?</t>
+  </si>
+  <si>
+    <t>3. Muốn sử dụng vòng lặp ở JSTL thì làm ntn? JSTL có hỗ trợ while, do…while hay không?</t>
+  </si>
+  <si>
+    <t>4. if và switch…case ở JSTL được sử dụng thông qua thẻ gì? Phân biệt?</t>
+  </si>
+  <si>
+    <t>5. Muốn show dữ liệu ở JSTL thì làm như thế nào?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - JSP là 1 tài liệu text có thể trả về cả static content (HTML, XML, text) và dynamic content (mã nguồn java, các thuộc tính của các lớp Java Bean, các custom tag) cho trình duyệt. Static content và dynamic content có thể đan xen lẫn nhau.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  - JSP (JavaServer Pages) là một ngôn ngữ kịch bản phía server, cho phép người dùng tạo ra các trang web động.</t>
+  </si>
+  <si>
+    <r>
+      <t>Đơn giản hóa mã</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: JSTL cung cấp các thẻ sẵn có, giúp mã JSP trở nên ngắn gọn và dễ đọc hơn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tách biệt logic và hiển thị</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: JSTL giúp tách biệt logic xử lý và logic hiển thị, làm cho mã dễ bảo trì và tái sử dụng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Bảo mật</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Giảm thiểu khả năng lộ mã Java nhúng khi trang JSP bị lộ mã nguồn.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Tăng hiệu suất</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>: Các thẻ JSTL được tối ưu hóa để hoạt động nhanh và hiệu quả hơn so với việc sử dụng mã Java nhúng.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Sử dụng thẻ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+      </rPr>
+      <t>&lt;c:forEach&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. Dưới đây là cú pháp cơ bản</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;c:forEach var="item" items="${collection}"&gt;
+    &lt;!-- Code to execute for each item --&gt;
+&lt;/c:forEach&gt;
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  - var</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là tên biến mà bạn muốn sử dụng cho mỗi phần tử trong vòng lặp.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  - items</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> là bộ sưu tập các phần tử mà bạn muốn lặp qua, có thể là một mảng, một danh sách, hoặc bất kỳ tập hợp nào.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">ví dụ : </t>
+  </si>
+  <si>
+    <t xml:space="preserve">List&lt;String&gt; names = Arrays.asList("John", "Jane", "Doe");
+request.setAttribute("namesList", names);
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;%@ taglib uri="http://java.sun.com/jsp/jstl/core" prefix="c" %&gt;
+&lt;ul&gt;
+    &lt;c:forEach var="name" items="${namesList}"&gt;
+        &lt;li&gt;${name}&lt;/li&gt;
+    &lt;/c:forEach&gt;
+&lt;/ul&gt;
+</t>
+  </si>
+  <si>
+    <t>Trong ví dụ trên, &lt;c:forEach&gt; sẽ lặp qua từng phần tử trong namesList và hiển thị mỗi tên trong một thẻ &lt;li&gt; trong danh sách không thứ tự &lt;ul&gt;.</t>
+  </si>
+  <si>
+    <t>JSTL không hỗ trợ trực tiếp các vòng lặp while hoặc do…while như trong Java. Tuy nhiên, bạn có thể sử dụng thẻ &lt;c:choose&gt;, &lt;c:when&gt;, và &lt;c:otherwise&gt; cùng với vòng lặp &lt;c:forEach&gt; để tạo ra các cấu trúc lặp tương tự.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        Thẻ &lt;c:if&gt; và &lt;c:choose&gt;, &lt;c:when&gt;, &lt;c:otherwise&gt;:</t>
+  </si>
+  <si>
+    <t>1. &lt;c:if&gt;: Sử dụng để kiểm tra một điều kiện và thực hiện một khối mã nếu điều kiện là đúng.</t>
+  </si>
+  <si>
+    <t>4.1. Cấu trúc if-else trong JSTL:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;c:if test="${condition}"&gt;
+    &lt;!-- Code to execute if condition is true --&gt;
+&lt;/c:if&gt;
+</t>
+  </si>
+  <si>
+    <t>2. &lt;c:choose&gt;, &lt;c:when&gt;, &lt;c:otherwise&gt;: Sử dụng khi bạn có nhiều điều kiện để kiểm tra.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;c:choose&gt;
+    &lt;c:when test="${condition1}"&gt;
+        &lt;!-- Code to execute if condition1 is true --&gt;
+    &lt;/c:when&gt;
+    &lt;c:when test="${condition2}"&gt;
+        &lt;!-- Code to execute if condition2 is true --&gt;
+    &lt;/c:when&gt;
+    &lt;c:otherwise&gt;
+        &lt;!-- Code to execute if none of the conditions are true --&gt;
+    &lt;/c:otherwise&gt;
+&lt;/c:choose&gt;
+</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4.2. Cấu trúc switch...case trong JSTL:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1D1C1D"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>JSTL không có trực tiếp một thẻ &lt;c:switch&gt; tương tự như trong Java. Thay vào đó, bạn có thể sử dụng một chuỗi các &lt;c:when&gt; và &lt;c:choose&gt; để mô phỏng cấu trúc switch...case.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">&lt;c:choose&gt;
+    &lt;c:when test="${value eq 'case1'}"&gt;
+        &lt;!-- Code to execute if value equals 'case1' --&gt;
+    &lt;/c:when&gt;
+    &lt;c:when test="${value eq 'case2'}"&gt;
+        &lt;!-- Code to execute if value equals 'case2' --&gt;
+    &lt;/c:when&gt;
+    &lt;c:otherwise&gt;
+        &lt;!-- Code to execute if none of the cases match --&gt;
+    &lt;/c:otherwise&gt;
+&lt;/c:choose&gt;
+</t>
+  </si>
+  <si>
+    <t>Trong đó : -  mỗi &lt;c:when&gt; được sử dụng để kiểm tra một điều kiện và thực hiện một khối mã tương ứng nếu điều kiện đúng. 
+                  - &lt;c:otherwise&gt; được sử dụng để xử lý trường hợp mặc định nếu không có một &lt;c:when&gt; nào được thỏa mãn.</t>
+  </si>
+  <si>
+    <t>Sử dụng thẻ &lt;c:out&gt; để hiển thị dữ liệu trong JSTL:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3017,6 +3250,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF1D1C1D"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -3082,7 +3322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3125,9 +3365,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -3143,16 +3380,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3160,6 +3394,16 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3176,6 +3420,49 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>5953943</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>85918</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="14944725"/>
+          <a:ext cx="5858693" cy="1381318"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4690,8 +4977,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4702,298 +4989,298 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C2" s="24" t="s">
+      <c r="C2" s="22" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>216</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="17" t="s">
         <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>219</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="17" t="s">
         <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="17" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="17" t="s">
         <v>223</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="18" t="s">
+      <c r="C7" s="17" t="s">
         <v>228</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="17" t="s">
         <v>229</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>230</v>
       </c>
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="17" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="19"/>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="18"/>
+      <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="25" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="27"/>
-      <c r="C10" s="27"/>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="22" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="17" t="s">
         <v>232</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>233</v>
       </c>
-      <c r="C12" s="18" t="s">
+      <c r="C12" s="17" t="s">
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="18" t="s">
+    <row r="13" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="17" t="s">
         <v>235</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="C13" s="18" t="s">
+      <c r="C13" s="17" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="18" t="s">
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="C14" s="17" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18" t="s">
+    <row r="15" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C15" s="18" t="s">
+      <c r="C15" s="17" t="s">
         <v>244</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="C16" s="18" t="s">
+      <c r="C16" s="17" t="s">
         <v>243</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="A17" s="19"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="26" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B19" s="24" t="s">
+      <c r="B19" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="22" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="C20" s="18" t="s">
+      <c r="C20" s="17" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="17" t="s">
         <v>257</v>
       </c>
-      <c r="C21" s="18" t="s">
+      <c r="C21" s="17" t="s">
         <v>258</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="17" t="s">
         <v>259</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="17" t="s">
         <v>260</v>
       </c>
-      <c r="C22" s="18" t="s">
+      <c r="C22" s="17" t="s">
         <v>261</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="18" t="s">
+    <row r="23" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
         <v>215</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="17" t="s">
         <v>272</v>
       </c>
-      <c r="C23" s="18" t="s">
+      <c r="C23" s="17" t="s">
         <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="17" t="s">
         <v>262</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="17" t="s">
         <v>263</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="C24" s="17" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="17" t="s">
         <v>265</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="17" t="s">
         <v>266</v>
       </c>
-      <c r="C25" s="18" t="s">
+      <c r="C25" s="17" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="39" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="18" t="s">
+    <row r="26" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="17" t="s">
         <v>268</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="17" t="s">
         <v>275</v>
       </c>
-      <c r="C26" s="18" t="s">
+      <c r="C26" s="17" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="18" t="s">
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="17" t="s">
         <v>269</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="17" t="s">
         <v>270</v>
       </c>
-      <c r="C27" s="18" t="s">
+      <c r="C27" s="17" t="s">
         <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="19"/>
-      <c r="B28" s="19"/>
-      <c r="C28" s="19"/>
+      <c r="A28" s="18"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="22" t="s">
+      <c r="A29" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="22"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="24" t="s">
+      <c r="B30" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="22" t="s">
         <v>277</v>
       </c>
     </row>
@@ -5009,24 +5296,24 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="17" t="s">
+      <c r="A32" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="C32" s="17" t="s">
+      <c r="C32" s="16" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="17" t="s">
+      <c r="A33" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="C33" s="17" t="s">
+      <c r="C33" s="16" t="s">
         <v>294</v>
       </c>
     </row>
@@ -5075,25 +5362,25 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="21"/>
-      <c r="B38" s="21"/>
-      <c r="C38" s="21"/>
+      <c r="A38" s="20"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="26" t="s">
+      <c r="A39" s="24" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="24"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="24" t="s">
+      <c r="A40" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B40" s="24" t="s">
+      <c r="B40" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="C40" s="24" t="s">
+      <c r="C40" s="22" t="s">
         <v>296</v>
       </c>
     </row>
@@ -5108,7 +5395,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="42" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
         <v>253</v>
       </c>
@@ -5175,29 +5462,29 @@
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="23"/>
-      <c r="B48" s="23"/>
-      <c r="C48" s="23"/>
+      <c r="A48" s="21"/>
+      <c r="B48" s="21"/>
+      <c r="C48" s="21"/>
     </row>
     <row r="49" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+      <c r="A49" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="16"/>
-      <c r="C49" s="16"/>
+      <c r="B49" s="23"/>
+      <c r="C49" s="23"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="24" t="s">
+      <c r="A50" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="22" t="s">
         <v>313</v>
       </c>
-      <c r="C50" s="24" t="s">
+      <c r="C50" s="22" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="51" spans="1:3" ht="64.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:3" ht="51.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
         <v>297</v>
       </c>
@@ -5219,7 +5506,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
         <v>317</v>
       </c>
@@ -5230,7 +5517,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
         <v>320</v>
       </c>
@@ -5254,14 +5541,220 @@
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="A49:C49"/>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="A10:C10"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A29:C29"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A49:C49"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A41"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="103.7109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" customWidth="1"/>
+    <col min="6" max="6" width="46" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10"/>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="28" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A14" s="28" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="114.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="10"/>
+    </row>
+    <row r="20" spans="1:1" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="10"/>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="10" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="57.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="171.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="13" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="171.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="13" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10"/>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10"/>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="10"/>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10"/>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10"/>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="10"/>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="10"/>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10"/>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>358</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/PrepareLessonM3.xlsx
+++ b/PrepareLessonM3.xlsx
@@ -3322,7 +3322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3386,6 +3386,13 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3400,10 +3407,6 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3428,13 +3431,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>5953943</xdr:colOff>
-      <xdr:row>38</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>85918</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4989,11 +4992,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="27" t="s">
         <v>207</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
     </row>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="22" t="s">
@@ -5078,11 +5081,11 @@
       <c r="C9" s="18"/>
     </row>
     <row r="10" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="28" t="s">
         <v>208</v>
       </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
     </row>
     <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
@@ -5156,11 +5159,11 @@
       <c r="C17" s="19"/>
     </row>
     <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="29" t="s">
         <v>209</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="29"/>
     </row>
     <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="22" t="s">
@@ -5267,11 +5270,11 @@
       <c r="C28" s="18"/>
     </row>
     <row r="29" spans="1:3" ht="63" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="27" t="s">
+      <c r="A29" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="B29" s="27"/>
-      <c r="C29" s="27"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
     </row>
     <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="22" t="s">
@@ -5367,11 +5370,11 @@
       <c r="C38" s="20"/>
     </row>
     <row r="39" spans="1:3" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="24" t="s">
+      <c r="A39" s="27" t="s">
         <v>210</v>
       </c>
-      <c r="B39" s="24"/>
-      <c r="C39" s="24"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
     </row>
     <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="22" t="s">
@@ -5467,11 +5470,11 @@
       <c r="C48" s="21"/>
     </row>
     <row r="49" spans="1:3" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="23" t="s">
+      <c r="A49" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="B49" s="23"/>
-      <c r="C49" s="23"/>
+      <c r="B49" s="26"/>
+      <c r="C49" s="26"/>
     </row>
     <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="22" t="s">
@@ -5555,15 +5558,15 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A41"/>
+  <dimension ref="A1:A40"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="103.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="111.5703125" style="3" customWidth="1"/>
     <col min="4" max="4" width="16.7109375" customWidth="1"/>
     <col min="5" max="5" width="24.140625" customWidth="1"/>
     <col min="6" max="6" width="46" customWidth="1"/>
@@ -5574,12 +5577,12 @@
         <v>329</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>334</v>
       </c>
@@ -5610,113 +5613,113 @@
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="10"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A9" s="10" t="s">
         <v>331</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+    <row r="10" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>340</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="57.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="13" t="s">
+    <row r="11" spans="1:1" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="25" t="s">
         <v>341</v>
       </c>
     </row>
+    <row r="12" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="23" t="s">
+        <v>342</v>
+      </c>
+    </row>
     <row r="13" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A13" s="28" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="A14" s="28" t="s">
+      <c r="A13" s="23" t="s">
         <v>343</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:1" ht="43.5" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" ht="114.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" ht="114.75" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" ht="29.25" x14ac:dyDescent="0.25">
-      <c r="A18" s="13" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="10"/>
-    </row>
-    <row r="20" spans="1:1" ht="45.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="10"/>
+    </row>
+    <row r="19" spans="1:1" ht="45.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
         <v>348</v>
       </c>
     </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="10"/>
+    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10"/>
+      <c r="A21" s="10" t="s">
+        <v>332</v>
+      </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
-        <v>332</v>
+        <v>351</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="10" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" ht="57.75" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="57.75" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" ht="171.75" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" ht="171.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="13" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="44.25" x14ac:dyDescent="0.25">
-      <c r="A29" s="10" t="s">
+    <row r="28" spans="1:1" ht="44.25" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="171.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="13" t="s">
+    <row r="29" spans="1:1" ht="171.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="13" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="60" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
+    <row r="30" spans="1:1" ht="60" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
         <v>357</v>
       </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10"/>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" s="10"/>
@@ -5740,15 +5743,12 @@
       <c r="A38" s="10"/>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A39" s="10"/>
+      <c r="A39" s="10" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="10" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A41" s="3" t="s">
+      <c r="A40" s="3" t="s">
         <v>358</v>
       </c>
     </row>
